--- a/Masterarbeit Stundenanzahl.xlsx
+++ b/Masterarbeit Stundenanzahl.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tag</t>
   </si>
@@ -47,15 +47,45 @@
   <si>
     <t>Kommentar</t>
   </si>
+  <si>
+    <t>RecSys15 data set reader bauen</t>
+  </si>
+  <si>
+    <t>ItemIds auf kleinere Zahlen gemappt (1-53000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Mappings am besten nochmal durchmischen sodass
+keine aufsteigenden Ids drin sind (könnte eventuell overfitten in der jetzigen Form)
+2) Timestamps umformen(Können Milisekunden eh
+nicht nutzen)
+</t>
+  </si>
+  <si>
+    <t>Proposal schreiben</t>
+  </si>
+  <si>
+    <t>Grundgerüst ist schonmal da</t>
+  </si>
+  <si>
+    <t>Fehlt halt noch viel Text</t>
+  </si>
+  <si>
+    <t>1) Paper nochmal nachlesen for allem die Memory 
+Paper. Ideen brainstormen</t>
+  </si>
+  <si>
+    <t>Model speichern und laden lernen und 
+dokumentieren</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="ddd/\ dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +115,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +149,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,13 +166,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -122,9 +181,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,7 +476,7 @@
   <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,8 +485,8 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.5703125" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
   </cols>
@@ -444,126 +514,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43024</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43025</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43026</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43027</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43028</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43029</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43030</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
       <c r="G8">
         <f>SUM(B2:B8)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43031</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43032</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43033</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43034</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43035</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43036</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43037</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3"/>
       <c r="G15">
         <f>SUM(B9:B15)</f>
@@ -574,56 +667,56 @@
       <c r="A16" s="1">
         <v>43038</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43039</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43040</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43041</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43042</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43043</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43044</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="3"/>
       <c r="G22">
         <f t="shared" ref="G22" si="0">SUM(B16:B22)</f>
@@ -634,56 +727,56 @@
       <c r="A23" s="1">
         <v>43045</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43046</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43047</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43048</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43049</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43050</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43051</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="3"/>
       <c r="G29">
         <f t="shared" ref="G29" si="1">SUM(B23:B29)</f>
@@ -694,56 +787,56 @@
       <c r="A30" s="1">
         <v>43052</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43053</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43054</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43055</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43056</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43057</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43058</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="3"/>
       <c r="G36">
         <f t="shared" ref="G36" si="2">SUM(B30:B36)</f>
@@ -754,56 +847,56 @@
       <c r="A37" s="1">
         <v>43059</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43060</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43061</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43062</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43063</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43064</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43065</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="3"/>
       <c r="G43">
         <f t="shared" ref="G43" si="3">SUM(B37:B43)</f>
@@ -814,56 +907,56 @@
       <c r="A44" s="1">
         <v>43066</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43067</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43068</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43069</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43070</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43071</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43072</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="3"/>
       <c r="G50">
         <f t="shared" ref="G50" si="4">SUM(B44:B50)</f>
@@ -874,56 +967,56 @@
       <c r="A51" s="1">
         <v>43073</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43074</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43075</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43076</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43077</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43078</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43079</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="3"/>
       <c r="G57">
         <f t="shared" ref="G57" si="5">SUM(B51:B57)</f>
@@ -934,56 +1027,56 @@
       <c r="A58" s="1">
         <v>43080</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43081</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43082</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43083</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43084</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43085</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43086</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="3"/>
       <c r="G64">
         <f t="shared" ref="G64" si="6">SUM(B58:B64)</f>
@@ -994,56 +1087,56 @@
       <c r="A65" s="1">
         <v>43087</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43088</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43089</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43090</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43091</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43092</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43093</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="3"/>
       <c r="G71">
         <f t="shared" ref="G71" si="7">SUM(B65:B71)</f>
@@ -1054,56 +1147,56 @@
       <c r="A72" s="1">
         <v>43094</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43095</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43096</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43097</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43098</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43099</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43100</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="3"/>
       <c r="G78">
         <f t="shared" ref="G78" si="8">SUM(B72:B78)</f>
@@ -1114,56 +1207,56 @@
       <c r="A79" s="1">
         <v>43101</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43102</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43103</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43104</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43105</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43106</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43107</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="3"/>
       <c r="G85">
         <f t="shared" ref="G85" si="9">SUM(B79:B85)</f>
@@ -1174,56 +1267,56 @@
       <c r="A86" s="1">
         <v>43108</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43109</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43110</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43111</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43112</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43113</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43114</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="3"/>
       <c r="G92">
         <f t="shared" ref="G92" si="10">SUM(B86:B92)</f>
@@ -1234,56 +1327,56 @@
       <c r="A93" s="1">
         <v>43115</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43116</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43117</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43118</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43119</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43120</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43121</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="3"/>
       <c r="G99">
         <f t="shared" ref="G99" si="11">SUM(B93:B99)</f>
@@ -1294,56 +1387,56 @@
       <c r="A100" s="1">
         <v>43122</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43123</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43124</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43125</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43126</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43127</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43128</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="3"/>
       <c r="G106">
         <f t="shared" ref="G106" si="12">SUM(B100:B106)</f>
@@ -1354,56 +1447,56 @@
       <c r="A107" s="1">
         <v>43129</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43130</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43131</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43132</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43133</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43134</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43135</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="3"/>
       <c r="G113">
         <f t="shared" ref="G113" si="13">SUM(B107:B113)</f>
@@ -1414,56 +1507,56 @@
       <c r="A114" s="1">
         <v>43136</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43137</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43138</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43139</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43140</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43141</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43142</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="3"/>
       <c r="G120">
         <f t="shared" ref="G120" si="14">SUM(B114:B120)</f>
@@ -1474,56 +1567,56 @@
       <c r="A121" s="1">
         <v>43143</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43144</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43145</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43146</v>
       </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43147</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="3"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43148</v>
       </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43149</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="3"/>
       <c r="G127">
         <f t="shared" ref="G127" si="15">SUM(B121:B127)</f>
@@ -1534,56 +1627,56 @@
       <c r="A128" s="1">
         <v>43150</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43151</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43152</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43153</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43154</v>
       </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43155</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43156</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="3"/>
       <c r="G134">
         <f t="shared" ref="G134" si="16">SUM(B128:B134)</f>
@@ -1594,56 +1687,56 @@
       <c r="A135" s="1">
         <v>43157</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43158</v>
       </c>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43159</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43160</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43161</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43162</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43163</v>
       </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="3"/>
       <c r="G141">
         <f t="shared" ref="G141" si="17">SUM(B135:B141)</f>
@@ -1654,56 +1747,56 @@
       <c r="A142" s="1">
         <v>43164</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="3"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43165</v>
       </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="3"/>
     </row>
     <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43166</v>
       </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43167</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43168</v>
       </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43169</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43170</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="3"/>
       <c r="G148">
         <f t="shared" ref="G148" si="18">SUM(B142:B148)</f>
@@ -1714,56 +1807,56 @@
       <c r="A149" s="1">
         <v>43171</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="3"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43172</v>
       </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43173</v>
       </c>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="3"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43174</v>
       </c>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="3"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43175</v>
       </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="3"/>
     </row>
     <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43176</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43177</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="3"/>
       <c r="G155">
         <f>SUM(B149:B155)</f>
@@ -1774,56 +1867,56 @@
       <c r="A156" s="1">
         <v>43178</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43179</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43180</v>
       </c>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43181</v>
       </c>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="3"/>
     </row>
     <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43182</v>
       </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43183</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="3"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43184</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="3"/>
       <c r="G162">
         <f>SUM(B156:B162)</f>
@@ -1834,56 +1927,56 @@
       <c r="A163" s="1">
         <v>43185</v>
       </c>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43186</v>
       </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43187</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43188</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43189</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43190</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43191</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="3"/>
       <c r="G169">
         <f t="shared" ref="G169" si="19">SUM(B163:B169)</f>
@@ -1894,8 +1987,8 @@
       <c r="A170" s="1">
         <v>43192</v>
       </c>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="3"/>
     </row>
   </sheetData>
